--- a/data_preparation/Quality/final_quality_check/data_completeness_report_20250820_171756.xlsx
+++ b/data_preparation/Quality/final_quality_check/data_completeness_report_20250820_171756.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vincent Wohlfarth\CodingProjects\DLSegPerf\data_preparation\Quality\final_quality_check\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{846DF90F-2523-48CB-BBA7-6CB02AD031A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8230BEFA-D6A0-440D-BD09-2D705D0C9684}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Completeness" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="941" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="984" uniqueCount="66">
   <si>
     <t>Group</t>
   </si>
@@ -188,9 +188,6 @@
     <t>brain lesion</t>
   </si>
   <si>
-    <t>ssLICA segmentation missing, ssRICA covers whole brain</t>
-  </si>
-  <si>
     <t>Training/Validation + Testing Split</t>
   </si>
   <si>
@@ -213,6 +210,27 @@
   </si>
   <si>
     <t>#dps total valid:</t>
+  </si>
+  <si>
+    <t>ssLICA segmentation unfeasible, ssRICA covers whole brain</t>
+  </si>
+  <si>
+    <t>unbalanced perfusion</t>
+  </si>
+  <si>
+    <t>Halving #dps</t>
+  </si>
+  <si>
+    <t>ssLICA</t>
+  </si>
+  <si>
+    <t>ssRICA</t>
+  </si>
+  <si>
+    <t>#dps ssLICA</t>
+  </si>
+  <si>
+    <t>#dps ssRICA</t>
   </si>
 </sst>
 </file>
@@ -367,7 +385,7 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -387,8 +405,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -696,35 +715,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R30" sqref="R30"/>
+      <selection pane="bottomLeft" activeCell="Q30" sqref="Q30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.33203125" style="7" customWidth="1"/>
-    <col min="13" max="13" width="15" style="16" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="51.5546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5546875" style="16" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="55.77734375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="23.5546875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="29.77734375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.88671875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="14.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -771,10 +790,13 @@
         <v>46</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+      <c r="Q1" s="21" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -818,10 +840,13 @@
         <v>16</v>
       </c>
       <c r="P2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -865,10 +890,13 @@
         <v>16</v>
       </c>
       <c r="P3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -912,10 +940,13 @@
         <v>16</v>
       </c>
       <c r="P4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -959,10 +990,13 @@
         <v>16</v>
       </c>
       <c r="P5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -1006,13 +1040,16 @@
         <v>16</v>
       </c>
       <c r="O6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -1056,10 +1093,13 @@
         <v>16</v>
       </c>
       <c r="P7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -1103,10 +1143,13 @@
         <v>16</v>
       </c>
       <c r="P8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -1150,10 +1193,13 @@
         <v>16</v>
       </c>
       <c r="P9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -1197,10 +1243,13 @@
         <v>16</v>
       </c>
       <c r="P10" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1244,10 +1293,13 @@
         <v>16</v>
       </c>
       <c r="P11" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -1291,10 +1343,13 @@
         <v>16</v>
       </c>
       <c r="P12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1338,10 +1393,13 @@
         <v>16</v>
       </c>
       <c r="P13" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -1385,10 +1443,13 @@
         <v>16</v>
       </c>
       <c r="P14" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -1432,10 +1493,13 @@
         <v>16</v>
       </c>
       <c r="P15" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -1479,10 +1543,13 @@
         <v>16</v>
       </c>
       <c r="P16" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -1526,10 +1593,13 @@
         <v>16</v>
       </c>
       <c r="P17" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>13</v>
       </c>
@@ -1573,10 +1643,13 @@
         <v>16</v>
       </c>
       <c r="P18" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>13</v>
       </c>
@@ -1620,10 +1693,13 @@
         <v>16</v>
       </c>
       <c r="P19" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>13</v>
       </c>
@@ -1667,10 +1743,13 @@
         <v>16</v>
       </c>
       <c r="P20" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>13</v>
       </c>
@@ -1714,10 +1793,10 @@
         <v>43</v>
       </c>
       <c r="P21" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>13</v>
       </c>
@@ -1761,10 +1840,13 @@
         <v>16</v>
       </c>
       <c r="P22" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>13</v>
       </c>
@@ -1808,10 +1890,13 @@
         <v>16</v>
       </c>
       <c r="P23" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>13</v>
       </c>
@@ -1855,10 +1940,13 @@
         <v>16</v>
       </c>
       <c r="P24" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>13</v>
       </c>
@@ -1902,10 +1990,13 @@
         <v>16</v>
       </c>
       <c r="P25" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>13</v>
       </c>
@@ -1949,10 +2040,13 @@
         <v>16</v>
       </c>
       <c r="P26" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>13</v>
       </c>
@@ -1996,10 +2090,13 @@
         <v>16</v>
       </c>
       <c r="P27" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>13</v>
       </c>
@@ -2043,10 +2140,13 @@
         <v>16</v>
       </c>
       <c r="P28" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>13</v>
       </c>
@@ -2090,10 +2190,13 @@
         <v>16</v>
       </c>
       <c r="P29" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>13</v>
       </c>
@@ -2137,10 +2240,13 @@
         <v>45</v>
       </c>
       <c r="P30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>13</v>
       </c>
@@ -2184,10 +2290,13 @@
         <v>16</v>
       </c>
       <c r="P31" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>13</v>
       </c>
@@ -2231,7 +2340,10 @@
         <v>16</v>
       </c>
       <c r="P32" t="s">
-        <v>53</v>
+        <v>52</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.3">
@@ -2278,7 +2390,10 @@
         <v>16</v>
       </c>
       <c r="P33" t="s">
-        <v>53</v>
+        <v>52</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.3">
@@ -2325,7 +2440,10 @@
         <v>16</v>
       </c>
       <c r="P34" t="s">
-        <v>53</v>
+        <v>52</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.3">
@@ -2372,7 +2490,10 @@
         <v>16</v>
       </c>
       <c r="P35" t="s">
-        <v>53</v>
+        <v>52</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.3">
@@ -2419,7 +2540,10 @@
         <v>16</v>
       </c>
       <c r="P36" t="s">
-        <v>53</v>
+        <v>52</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.3">
@@ -2466,7 +2590,10 @@
         <v>16</v>
       </c>
       <c r="P37" t="s">
-        <v>53</v>
+        <v>52</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.3">
@@ -2513,7 +2640,10 @@
         <v>16</v>
       </c>
       <c r="P38" t="s">
-        <v>53</v>
+        <v>52</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.3">
@@ -2560,7 +2690,10 @@
         <v>16</v>
       </c>
       <c r="P39" t="s">
-        <v>53</v>
+        <v>52</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.3">
@@ -2607,7 +2740,16 @@
         <v>16</v>
       </c>
       <c r="P40" t="s">
-        <v>53</v>
+        <v>52</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>62</v>
+      </c>
+      <c r="R40" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="S40" s="19" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.3">
@@ -2654,7 +2796,15 @@
         <v>16</v>
       </c>
       <c r="P41" t="s">
-        <v>55</v>
+        <v>54</v>
+      </c>
+      <c r="R41">
+        <f>COUNTIF(Q2:Q40,"*ssLICA*")</f>
+        <v>19</v>
+      </c>
+      <c r="S41">
+        <f>COUNTIF(Q2:Q40,"*ssRICA*")</f>
+        <v>19</v>
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.3">
@@ -2701,7 +2851,7 @@
         <v>16</v>
       </c>
       <c r="P42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.3">
@@ -2748,7 +2898,7 @@
         <v>16</v>
       </c>
       <c r="P43" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.3">
@@ -2795,7 +2945,7 @@
         <v>16</v>
       </c>
       <c r="P44" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.3">
@@ -2842,16 +2992,16 @@
         <v>16</v>
       </c>
       <c r="P45" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q45" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q45" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="R45" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="R45" s="20" t="s">
+      <c r="S45" s="19" t="s">
         <v>58</v>
-      </c>
-      <c r="S45" s="20" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.3">
@@ -2898,10 +3048,10 @@
         <v>16</v>
       </c>
       <c r="O46" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P46" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q46">
         <f>COUNTIF(P2:P62,"*Training/Validation*")</f>
@@ -2960,7 +3110,7 @@
         <v>48</v>
       </c>
       <c r="P47" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.3">
@@ -3007,7 +3157,7 @@
         <v>48</v>
       </c>
       <c r="P48" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.3">
@@ -3054,7 +3204,7 @@
         <v>47</v>
       </c>
       <c r="P49" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.3">
@@ -3101,7 +3251,7 @@
         <v>47</v>
       </c>
       <c r="P50" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.3">
@@ -3148,7 +3298,7 @@
         <v>47</v>
       </c>
       <c r="P51" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.3">
@@ -3195,7 +3345,7 @@
         <v>47</v>
       </c>
       <c r="P52" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.3">
@@ -3242,7 +3392,7 @@
         <v>16</v>
       </c>
       <c r="P53" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.3">
@@ -3289,7 +3439,7 @@
         <v>16</v>
       </c>
       <c r="P54" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.3">
@@ -3336,7 +3486,7 @@
         <v>16</v>
       </c>
       <c r="P55" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.3">
@@ -3383,7 +3533,7 @@
         <v>16</v>
       </c>
       <c r="P56" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.3">
@@ -3430,7 +3580,7 @@
         <v>48</v>
       </c>
       <c r="P57" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.3">
@@ -3477,7 +3627,7 @@
         <v>48</v>
       </c>
       <c r="P58" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.3">
@@ -3527,7 +3677,7 @@
         <v>50</v>
       </c>
       <c r="P59" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.3">
@@ -3577,7 +3727,7 @@
         <v>50</v>
       </c>
       <c r="P60" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.3">
@@ -3614,26 +3764,29 @@
       <c r="K61" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L61" s="6" t="s">
-        <v>25</v>
+      <c r="L61" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="M61" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="N61" s="19" t="s">
-        <v>51</v>
+      <c r="N61" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="O61" t="s">
+        <v>60</v>
       </c>
       <c r="P61" t="s">
         <v>54</v>
       </c>
-      <c r="Q61" s="20" t="s">
+      <c r="Q61" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="R61" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="R61" s="20" t="s">
+      <c r="S61" s="19" t="s">
         <v>58</v>
-      </c>
-      <c r="S61" s="20" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.3">
@@ -3670,14 +3823,17 @@
       <c r="K62" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L62" s="6" t="s">
-        <v>25</v>
+      <c r="L62" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="M62" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="N62" s="19" t="s">
-        <v>51</v>
+      <c r="N62" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="O62" t="s">
+        <v>60</v>
       </c>
       <c r="P62" t="s">
         <v>54</v>
@@ -3688,11 +3844,11 @@
       </c>
       <c r="R62">
         <f>COUNTIF(P47:P62, "*Testing*")</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="S62">
         <f>SUM(Q62:R62)</f>
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
